--- a/Cost Estimation.xlsx
+++ b/Cost Estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/Documents/Visual Studio Code/Crowley-SDA-Church/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDA7931-7EFF-E247-BDE1-87AB5E3E37A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E320CD8-CA15-4A44-9918-FAA3976989C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34860" yWindow="500" windowWidth="16340" windowHeight="12980" xr2:uid="{85812CC2-4E4D-D948-9692-9D663EF942EB}"/>
+    <workbookView xWindow="1120" yWindow="880" windowWidth="34880" windowHeight="22500" xr2:uid="{85812CC2-4E4D-D948-9692-9D663EF942EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Item</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>Arduino</t>
-  </si>
-  <si>
     <t>Hardware</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">✅     </t>
+  </si>
+  <si>
+    <t>Signal Conditioner</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="B4:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,42 +504,34 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <f>50-25</f>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -548,7 +540,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -557,39 +549,42 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>200</v>
@@ -598,25 +593,37 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
@@ -637,7 +644,7 @@
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21">
         <f>SUM(C5:C20)</f>
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="F21" s="2"/>
     </row>

--- a/Cost Estimation.xlsx
+++ b/Cost Estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/Documents/Visual Studio Code/Crowley-SDA-Church/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E320CD8-CA15-4A44-9918-FAA3976989C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A4DA42-1EA5-504A-AE19-A0AD9EEBF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="880" windowWidth="34880" windowHeight="22500" xr2:uid="{85812CC2-4E4D-D948-9692-9D663EF942EB}"/>
+    <workbookView xWindow="1320" yWindow="880" windowWidth="34680" windowHeight="22500" xr2:uid="{85812CC2-4E4D-D948-9692-9D663EF942EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Item</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>display</t>
-  </si>
-  <si>
-    <t>https://www.buydisplay.com/4-3-lcd-touch-screen-module-display-tft-ssd1963-controller-mcu?srsltid=AfmBOop8-uBfpCnzvIvkKWw28VsWtkl-nTbRvMLGql4BeKHfGfiivKTA</t>
   </si>
   <si>
     <t>STM nucleo 2x</t>
@@ -484,7 +481,7 @@
   <dimension ref="B4:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
@@ -518,14 +515,14 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <f>50-25</f>
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -566,7 +563,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -578,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -599,7 +596,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -608,21 +605,22 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>65</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>45</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -644,7 +642,7 @@
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21">
         <f>SUM(C5:C20)</f>
-        <v>555</v>
+        <v>690</v>
       </c>
       <c r="F21" s="2"/>
     </row>

--- a/Cost Estimation.xlsx
+++ b/Cost Estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/Documents/Visual Studio Code/Crowley-SDA-Church/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A4DA42-1EA5-504A-AE19-A0AD9EEBF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AFC7E3-437E-D142-B668-3CB9C710349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="880" windowWidth="34680" windowHeight="22500" xr2:uid="{85812CC2-4E4D-D948-9692-9D663EF942EB}"/>
+    <workbookView xWindow="10340" yWindow="4040" windowWidth="34920" windowHeight="21100" xr2:uid="{85812CC2-4E4D-D948-9692-9D663EF942EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,67 +36,207 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>Item</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>https://www.showmecables.com/l-com-double-shielded-cat5e-outdoor-high-flex-poe-industrial-ethernet-cable-rj45-blk-5-ft?utm_medium=cpc&amp;utm_source=google&amp;utm_campaign=Shopping%20-%20Cables&amp;keyword=&amp;gad_source=1&amp;gad_campaignid=20848534978&amp;gbraid=0AAAAAD_k8wf1tCPp9NEIEKqQhs04SYCqR&amp;gclid=CjwKCAjw1dLDBhBoEiwAQNRiQXJ-TMO5R8265a7yXEtjZZnFehF-ji2XOTTjmcM8mtgdLgR_PBYblhoCZ9UQAvD_BwE</t>
-  </si>
-  <si>
-    <t>High flex Cat5e 60ft</t>
-  </si>
-  <si>
-    <t>Ethernet 90ft</t>
-  </si>
-  <si>
-    <t>485 to TTL converters</t>
-  </si>
-  <si>
-    <t>Inclinometer</t>
-  </si>
-  <si>
-    <t>DIY H-Bridges</t>
-  </si>
-  <si>
-    <t>Load cell</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
-    <t>STM nucleo 2x</t>
-  </si>
-  <si>
-    <t>Purchased</t>
-  </si>
-  <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✅     </t>
-  </si>
-  <si>
-    <t>Signal Conditioner</t>
+    <t>Gearbox</t>
+  </si>
+  <si>
+    <t>CM5-T4CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pillow bearings </t>
+  </si>
+  <si>
+    <t>Shaft</t>
+  </si>
+  <si>
+    <t>kinetic arrestor</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>Absolute Encoder</t>
+  </si>
+  <si>
+    <t>Limit Switches</t>
+  </si>
+  <si>
+    <t>3 phase motor</t>
+  </si>
+  <si>
+    <t>VFD</t>
+  </si>
+  <si>
+    <t>PLC</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>6x</t>
+  </si>
+  <si>
+    <t>AutomationDirect</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>Cat 5e Ethernet 100ft</t>
+  </si>
+  <si>
+    <t>AutomationDirect PN</t>
+  </si>
+  <si>
+    <t>BX-DM1E-18ED23</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>E-Stop - HMI</t>
+  </si>
+  <si>
+    <t>Winch system potential design</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessability </t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Dual/tripple chain motor w chain lockout</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>Low accessability
+Same as current system with higher safety</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Industrial strap winch system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repairabilty / Reliabilty </t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>Accessability
+Automated</t>
+  </si>
+  <si>
+    <t>Safety
+Low complexity
+Proven design</t>
+  </si>
+  <si>
+    <t>Industrial chain winch system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessability
+Automated
+Less adjustment needed </t>
+  </si>
+  <si>
+    <t>High relative complexity
+Design required for good safety factor
+Need method to adjust level</t>
+  </si>
+  <si>
+    <t>Feedback / Lift design</t>
+  </si>
+  <si>
+    <t>Chain drive</t>
+  </si>
+  <si>
+    <t>strap</t>
+  </si>
+  <si>
+    <t>Rope drum</t>
+  </si>
+  <si>
+    <t>encoder</t>
+  </si>
+  <si>
+    <t>Chain (industry standard)</t>
+  </si>
+  <si>
+    <t>Chain drive (dual speed)</t>
+  </si>
+  <si>
+    <t>industrial draw wire</t>
+  </si>
+  <si>
+    <t>Strap + VFD concept</t>
+  </si>
+  <si>
+    <t>Chain drive (VFD)</t>
+  </si>
+  <si>
+    <t>small chain + limit sw</t>
+  </si>
+  <si>
+    <t>Potential chain drive motors 2 spd</t>
+  </si>
+  <si>
+    <t>Harrington SEQ 1/4-ton 33fpm Electric Chain Hoist</t>
+  </si>
+  <si>
+    <t>Dual spd VFD</t>
+  </si>
+  <si>
+    <t>115-1-60</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>CM Lodestar Classic C2 1/4-Ton 10/32fpm Hoist 2737</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://hoists.com/product/cm-lodestar-classic-c2-1-4-ton-10-32fpm-electric-chain-hoist/</t>
+  </si>
+  <si>
+    <t>https://hoists.com/product/harrington-seq-1-4-ton-33fpm-electric-chain-hoist/</t>
+  </si>
+  <si>
+    <t>Dual wound core</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,16 +244,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,18 +306,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -478,199 +749,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84796389-7774-1F45-8835-380005FA138D}">
-  <dimension ref="B4:F29"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="12" max="12" width="36" customWidth="1"/>
+    <col min="13" max="13" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <f>50-25</f>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
+      <c r="E21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
+      <c r="C36" s="13"/>
+      <c r="D36" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>200</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>45</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <f>SUM(C5:C20)</f>
-        <v>690</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="2"/>
+      <c r="F36" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37">
+        <v>3200</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38">
+        <v>4200</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
